--- a/SeleniumtestNG/bin/config/Controller.xlsx
+++ b/SeleniumtestNG/bin/config/Controller.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suite1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TC04" sheetId="5" r:id="rId5"/>
     <sheet name="Keywords" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>TCID</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>Result-1</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -417,6 +420,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -425,10 +439,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,7 +827,7 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -828,8 +843,11 @@
       <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -843,7 +861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -857,7 +875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -871,7 +889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -885,7 +903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -899,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -913,7 +931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -927,7 +945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -941,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -955,7 +973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -969,7 +987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1494,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
